--- a/result/information_from_tokopedia.xlsx
+++ b/result/information_from_tokopedia.xlsx
@@ -463,48 +463,38 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/65c8bf5294cb44108b4e2b1e188cd6ca~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763902226&amp;x-signature=QVSseb3vuAbUeP9d%2BH3R%2F3InNew%3D&amp;x-signature-webp=uGiKeKEzyZrTP46E3odKtJDaczU%3D</t>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/194dfcf7511141e4baa455e876099d65~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764166626&amp;x-signature=SFftugZt8X28C8DZi6HWrg1iKUQ%3D&amp;x-signature-webp=KVtQc8NB8Jo3bER3KzOxHfwhJMM%3D</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DAP Kabel Data  Fast Charge USB To Type C Power Delivery 3A Length 100cm DHT100 - Garansi 1 tahun - Random</t>
+          <t>Apple iPhone 15 Garansi Resmi - 128GB 256GB 512GB - Black, 128GB</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rp6.303</t>
+          <t>Rp11.228.900</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Pembelian 50pcs akan mendapatkan Box.
-Mohon dibaca sebelum membeli:
-1. Produk dengan varian warna, jika stock kosong maka akan kami kirim warna random
-Jika Costumer sudah membayar pesanan, maka dinyatakan setuju dengan ketentuan di atas.
-Keunggulan:
-1. Support Quick Charge 2.4A.
-2. Kompatibel dengan semua perangkat yang menggunakan type-c
-3. tersedia 4 pilihan warna Putih/Hitam/ pink/biru muda
-4. Dibekali smart chip khusus untuk menjaga kestabilan arus charging saat terhubung dengan smartphone.
-5. Bagian plug menggunakan material alumimun alloy, untuk mendukung tampilan elegan dan menawan.
-6. Bagian leher port dilapisi material SR khusus untuk mencegah kabel mudah putus saat digunakan harian.
-7. Dilengkapi pengikat kabel untuk memudahkan penyimpanan kabel saat sedang tidak digunakan.
-Ketentuan garansi:
-1. Garansi tidak berlaku jika:
-a. Tidak ditemukan adanya kerusakan
-b. Kerusakan disebabkan oleh faktor luar/di luar kuasa
-c. Kerusakan akibat dari kesalahan pemakaian (terjatuh, tergores, ternoda, pecah, terkena air, dll.)
-2. Syarat klaim:
-a. Unit masih dalam masa garansi dan sesuai dengan kebijakan garansi yang telah ditetapkan
-b. Kelengkapan dari unit harus disertai secara lengkap (dus, kabel charger, buku manual, kartu garansi, dll)
-c. Dilengkapi dengan nota pembelian (print out history pembelian) dan informasi kerusakan unit
-*Note: Hubungi customer service kami melalui layanan chat, untuk mengetahui prosedur klaim Retur atau Garansi lebih lanjut.</t>
+          <t>iSmile adalah APPLE ONLINE RESELLER yang khusus menjual produk APPLE ORIGINAL dan BERGARANSI RESMI.
+iSmile adalah Tokopedia OFFICIAL STORE &amp; REKOMENDASI SELLER APPLE PILIHAN Tokopedia
+Customer Corporate / Project are welcome
+iSmile menerima bulk order &amp; bisa menerbitkan faktur pajak (konfirmasi dahulu sebelum transaksi)
+Apakah produk Apple yang dijual iSmile sama seperti iBox, Digimap dan Apple Authorized Apple Reseller (AAR) lainnya?
+Ya, Produk Apple yang kami jual ORIGINAL APPLE dan BERGARANSI RESMI INDONESIA, sama seperti yang dijual oleh iBox, Digimap, dll
+Mengapa harga iSmile lebih mudah dibanding iBox, Digimap dan Apple Authorized Reseller (AAR) lainnya?
+iSmile merupakan Apple Online Reseller yang TIDAK MEMILIKI TOKO FISIK, kami BEROPERASI secara EFISIEN karena tidak membayar sewa tempat yang mahal di mall, tidak menggaji banyak Sales Promotor. Sehingga HARGA yang kami tawarkan bisa LEBIH RENDAH.
+Apakah perbedaan iSmile dengan Toko Online Lain (bukan Apple Authorized Reseller) di marketplace?
+iSmile HANYA MENJUAL Produk APPLE ORIGINAL &amp; BERGARANSI RESMI, Toko Online Lain (bukan Apple Authorized Reseller) banyak menjual Produk Apple Bergaransi International (Tidak Resmi), Refurbished, dll yang tidak bisa dijamin Originalitas-nya dan mungkin bermasalah pada saat kamu akan melakukan claim garansi di Apple Authorized Service Provider (AASP).
+Bagaimana garansi Apple iSmile?
+Semua produk Apple yang dijual iSmile BERGARANSI RESMI dan bisa diclaim di Apple Authorized Service Provider (AASP) Indonesia (iBox, Digimap, Mitracare, QCD Indonesia, Story-i, Hello) dan AASP Luar negeri.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Kota Administrasi Jakarta Utara</t>
+          <t>Kota Administrasi Jakarta Pusat</t>
         </is>
       </c>
     </row>

--- a/result/information_from_tokopedia.xlsx
+++ b/result/information_from_tokopedia.xlsx
@@ -463,38 +463,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/194dfcf7511141e4baa455e876099d65~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764166626&amp;x-signature=SFftugZt8X28C8DZi6HWrg1iKUQ%3D&amp;x-signature-webp=KVtQc8NB8Jo3bER3KzOxHfwhJMM%3D</t>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/1d93e86eb02f4073a74781e7118d13d3~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1768579787&amp;x-signature=yOsLfNcPeZm5dnk%2Bn5hJIbbpkbY%3D&amp;x-signature-webp=qv%2F1ISxOzCfUptNqODZzEbrJ%2Ffg%3D</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 Garansi Resmi - 128GB 256GB 512GB - Black, 128GB</t>
+          <t>MOUSEPAD GAMING DESKMAT 40 X 90 30 X 80 CM - MP066, 30 X 80 CM</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rp11.228.900</t>
+          <t>Rp54.900</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>iSmile adalah APPLE ONLINE RESELLER yang khusus menjual produk APPLE ORIGINAL dan BERGARANSI RESMI.
-iSmile adalah Tokopedia OFFICIAL STORE &amp; REKOMENDASI SELLER APPLE PILIHAN Tokopedia
-Customer Corporate / Project are welcome
-iSmile menerima bulk order &amp; bisa menerbitkan faktur pajak (konfirmasi dahulu sebelum transaksi)
-Apakah produk Apple yang dijual iSmile sama seperti iBox, Digimap dan Apple Authorized Apple Reseller (AAR) lainnya?
-Ya, Produk Apple yang kami jual ORIGINAL APPLE dan BERGARANSI RESMI INDONESIA, sama seperti yang dijual oleh iBox, Digimap, dll
-Mengapa harga iSmile lebih mudah dibanding iBox, Digimap dan Apple Authorized Reseller (AAR) lainnya?
-iSmile merupakan Apple Online Reseller yang TIDAK MEMILIKI TOKO FISIK, kami BEROPERASI secara EFISIEN karena tidak membayar sewa tempat yang mahal di mall, tidak menggaji banyak Sales Promotor. Sehingga HARGA yang kami tawarkan bisa LEBIH RENDAH.
-Apakah perbedaan iSmile dengan Toko Online Lain (bukan Apple Authorized Reseller) di marketplace?
-iSmile HANYA MENJUAL Produk APPLE ORIGINAL &amp; BERGARANSI RESMI, Toko Online Lain (bukan Apple Authorized Reseller) banyak menjual Produk Apple Bergaransi International (Tidak Resmi), Refurbished, dll yang tidak bisa dijamin Originalitas-nya dan mungkin bermasalah pada saat kamu akan melakukan claim garansi di Apple Authorized Service Provider (AASP).
-Bagaimana garansi Apple iSmile?
-Semua produk Apple yang dijual iSmile BERGARANSI RESMI dan bisa diclaim di Apple Authorized Service Provider (AASP) Indonesia (iBox, Digimap, Mitracare, QCD Indonesia, Story-i, Hello) dan AASP Luar negeri.</t>
+          <t>MOUSEPAD PREMIUM TERSEDIA 2 UKURAN YA KA
+Ukuran
+- 30 x 80 cm
+- 40 x 90 cm
+FEATURES
+Slick, Taut Weave for Speed Gameplay
+Mouse pad ini dirancang khusus untuk kebutuhan gaming yang membutuhkan tingkat keakuratan mouse yang tinggi dan cocok untuk game-game yang memerlukan tingkat kecepatan yang tinggi.
+Soft Mouse Mats
+Material mouse pad ini terbuat dari kain yang halus dan silikon untuk memastikan fleksibilitas yang maksimum serta kenyamanan pada saat Anda bermain game atau bekerja.
+Optimized for all sensitivity settings and sensors
+Mouse pad ini cocok bagi segala jenis kebutuhan sensivitas dan dapat mengkontrol mouse Anda dengan baik dan presisi pada saat bermain.
+Anti Slip Backing
+Bagian bawah mouse pad terbuat dari material karet yang anti slip. Mouse pad akan tetap stabil tertempel di meja meskipun mouse Anda bergerak dengan cepat.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Kota Administrasi Jakarta Pusat</t>
+          <t>Kota Administrasi Jakarta Utara</t>
         </is>
       </c>
     </row>

--- a/result/information_from_tokopedia.xlsx
+++ b/result/information_from_tokopedia.xlsx
@@ -463,34 +463,55 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/1d93e86eb02f4073a74781e7118d13d3~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1768579787&amp;x-signature=yOsLfNcPeZm5dnk%2Bn5hJIbbpkbY%3D&amp;x-signature-webp=qv%2F1ISxOzCfUptNqODZzEbrJ%2Ffg%3D</t>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/68c57dc5515e456bb2e5de9363826388~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1770020675&amp;x-signature=1n%2F3G7DjLHMPtmH2bweKZ9v%2BYCw%3D&amp;x-signature-webp=FH951L5gXfAQcpeXyNwcqBJlbO8%3D</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MOUSEPAD GAMING DESKMAT 40 X 90 30 X 80 CM - MP066, 30 X 80 CM</t>
+          <t>ASUS GAMING K16 K3605VC GeForce RTX 3050 - i5 13420H RAM 16GB 512GB SSD - RAM 8GB, TANPA ANTIGORES</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rp54.900</t>
+          <t>Rp10.348.899</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MOUSEPAD PREMIUM TERSEDIA 2 UKURAN YA KA
-Ukuran
-- 30 x 80 cm
-- 40 x 90 cm
-FEATURES
-Slick, Taut Weave for Speed Gameplay
-Mouse pad ini dirancang khusus untuk kebutuhan gaming yang membutuhkan tingkat keakuratan mouse yang tinggi dan cocok untuk game-game yang memerlukan tingkat kecepatan yang tinggi.
-Soft Mouse Mats
-Material mouse pad ini terbuat dari kain yang halus dan silikon untuk memastikan fleksibilitas yang maksimum serta kenyamanan pada saat Anda bermain game atau bekerja.
-Optimized for all sensitivity settings and sensors
-Mouse pad ini cocok bagi segala jenis kebutuhan sensivitas dan dapat mengkontrol mouse Anda dengan baik dan presisi pada saat bermain.
-Anti Slip Backing
-Bagian bawah mouse pad terbuat dari material karet yang anti slip. Mouse pad akan tetap stabil tertempel di meja meskipun mouse Anda bergerak dengan cepat.</t>
+          <t>RTX 3000
+The Ultimate Play GeForce RTX 30 Series with NVIDIA DLSS &amp; Ray Tracing
+ASUS VIVOBOOK 16X K3605VC -I535B6T-HM
+I5 13420H RTX3050 4GB/ 8GB / 16GB 512GB W11+OHS+O365 16.0 WUXGA BLACK
+Specification :
+Graphics : NVIDIA GeForce RTX 3050 4GB Laptop GPU 4GB GDDR6, Intel UHD Graphics
+Processor : Intel Core i5-13420H Processor 2.1 GHz (12MB Cache, up to 4.6 GHz, 8 cores, 12 Threads)
+Operating System : Windows 11 Home
+Microsoft Office :Office Home and Student 2021 included
+Display : 16.0-inch, WUXGA (1920 x 1200) 16:10 aspect ratio, IPS-level Panel, LED Backlit, 144Hz refresh rate, 300nits, 45% NTSC color gamut, Anti-glare display, TÜV Rheinland-certified, (Screen-to-body ratio)86%
+Memory :  8GB DDR4 on board + 8GB DDR4 SO-DIMM ( tersedia 2 varian 8GB &amp; 16GB )
+Max Total system memory up to:24GB
+Storage : 512GB M.2 NVMe PCIe 4.0 SSD (replace for upgrade)
+Ports :
+1x USB 3.2 Gen 1 Type-C support power delivery
+2x USB 3.2 Gen 1 Type-A
+1x HDMI 2.1 TMDS
+1x 3.5mm Combo Audio Jack
+1x DC-in
+SD 4.0 card reader
+Camera : 720p HD camera With privacy shutter
+Network and Communication : Wi-Fi 6E(802.11ax) (Triple band) 2*2 + Bluetooth 5.3 Wireless Card (*Bluetooth version may change with OS version different.)
+Battery : 50WHrs, 3S1P, 3-cell Li-ion
+Power Supply : 120W AC Adapter,
+Weight : 1.80 kg
+Keyboard &amp; Touchpad : Backlit Chiclet Keyboard with Num-key
+Free backpak asus
+Warranty By ASUS Indonesia 2 Years
+===========================================================
+KETENTUAN TOKO
+- Buka senin-sabtu (10.00-17.00) Minggu/tgl merah (chat admin)
+- Garansi toko 5 hari wajib video unboxing dan belum aktivasi office (AKTIVASI OFFICE GARANSI TOKO HANGUS)
+- Seluruh laptop di NVIDIA OFFICIAL merupakan GARANSI RESMI
+- Faktur pajak, chat admin untuk s&amp;k nya</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
